--- a/dev-topics-algorithms/dev-topics-badaddr/analysis/addition_checker.xlsx
+++ b/dev-topics-algorithms/dev-topics-badaddr/analysis/addition_checker.xlsx
@@ -149,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -197,9 +197,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -218,6 +218,610 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Accuracy vs Sequence Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7286697430537722E-2"/>
+          <c:y val="8.6754514071242239E-2"/>
+          <c:w val="0.74983032632731916"/>
+          <c:h val="0.84324770915157821"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bad Adder Results'!$H$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SCL-SML-SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$E$49:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.2489999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.741E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.124E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.202E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8440000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.18E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5099999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.8669999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.8739999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7400000000000001E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bad Adder Results'!$H$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SCL-LRG-SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$A$62:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$E$62:$E$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2489999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8700000000000005E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.6420000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8440000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.18E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5099999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.719E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.1270000000000001E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bad Adder Results'!$H$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SCL-RND-SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$A$75:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$E$75:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.741E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3729999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.202E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5310000000000005E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2510000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.012E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.4549999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.5680000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.098E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1460000000000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bad Adder Results'!$H$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SCL-RND-PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$A$88:$A$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$E$88:$E$98</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.124E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.6880000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.8999999999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5099999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5519999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.218E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9840000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.8929999999999994E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124087680"/>
+        <c:axId val="124093952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124087680"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Length of Summed Sequence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124093952"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124093952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Significant</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Digits</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124087680"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2387,10 +2991,10 @@
       <c r="A80">
         <v>1000000</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>63139348.40258</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="5">
         <v>63139348.40258</v>
       </c>
       <c r="D80" s="5">
@@ -3166,5 +3770,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dev-topics-algorithms/dev-topics-badaddr/analysis/addition_checker.xlsx
+++ b/dev-topics-algorithms/dev-topics-badaddr/analysis/addition_checker.xlsx
@@ -245,8 +245,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Accuracy vs Sequence Length</a:t>
+              <a:t> Accuracy vs Sequence Length by</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Summation Technique</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -261,9 +266,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.7286697430537722E-2"/>
-          <c:y val="8.6754514071242239E-2"/>
-          <c:w val="0.74983032632731916"/>
-          <c:h val="0.84324770915157821"/>
+          <c:y val="2.9350726782738513E-2"/>
+          <c:w val="0.71052026472151109"/>
+          <c:h val="0.86762407018714816"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -283,6 +288,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Bad Adder Results'!$A$49:$A$59</c:f>
@@ -370,108 +395,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Bad Adder Results'!$H$62</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> SCL-LRG-SEQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Bad Adder Results'!$A$62:$A$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Bad Adder Results'!$E$62:$E$72</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.2489999999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8700000000000005E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8.6420000000000002E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.8440000000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.18E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.5099999999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.719E-7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.1270000000000001E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Bad Adder Results'!$H$75</c:f>
@@ -483,6 +408,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Bad Adder Results'!$A$75:$A$85</c:f>
@@ -571,7 +516,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Bad Adder Results'!$H$88</c:f>
@@ -583,6 +528,24 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Bad Adder Results'!$A$88:$A$98</c:f>
@@ -663,6 +626,129 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-8.8929999999999994E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bad Adder Results'!$H$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SCLK-RND-SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$A$101:$A$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$E$101:$E$111</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,11 +763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124087680"/>
-        <c:axId val="124093952"/>
+        <c:axId val="124035072"/>
+        <c:axId val="124037760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124087680"/>
+        <c:axId val="124035072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -711,18 +797,501 @@
             <a:noFill/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="124037760"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124037760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Relative Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124093952"/>
+        <c:crossAx val="124035072"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Accuracy vs Sequence Length by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Summation Technique</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7286697430537722E-2"/>
+          <c:y val="2.9350726782738513E-2"/>
+          <c:w val="0.71052026472151109"/>
+          <c:h val="0.86762407018714816"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bad Adder Results'!$H$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SCLK-RND-SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$A$101:$A$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$F$101:$F$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bad Adder Results'!$H$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SCL-RND-PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$A$88:$A$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$F$88:$F$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bad Adder Results'!$H$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SCL-RND-SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$A$75:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bad Adder Results'!$F$75:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="55764096"/>
+        <c:axId val="123867136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="55764096"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Length of Summed Sequence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="123867136"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124093952"/>
+        <c:axId val="123867136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="17"/>
+          <c:min val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -757,13 +1326,15 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124087680"/>
+        <c:crossAx val="55764096"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -794,15 +1365,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:colOff>623886</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -816,6 +1387,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1117,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="BC105" sqref="BC105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/dev-topics-algorithms/dev-topics-badaddr/analysis/addition_checker.xlsx
+++ b/dev-topics-algorithms/dev-topics-badaddr/analysis/addition_checker.xlsx
@@ -1238,11 +1238,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55764096"/>
-        <c:axId val="123867136"/>
+        <c:axId val="123933440"/>
+        <c:axId val="123935744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55764096"/>
+        <c:axId val="123933440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1276,7 +1276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="123867136"/>
+        <c:crossAx val="123935744"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1287,7 +1287,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123867136"/>
+        <c:axId val="123935744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -1330,7 +1330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55764096"/>
+        <c:crossAx val="123933440"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1720,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="BC105" sqref="BC105"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
